--- a/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
+++ b/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Kenya\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F3F03E-5DCB-4167-BAE3-365E002859AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -81,15 +87,9 @@
     <t>Write first and last name</t>
   </si>
   <si>
-    <t xml:space="preserve">Kitambulisho cha Mshiriki </t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>p_county</t>
-  </si>
-  <si>
     <t>Select your county</t>
   </si>
   <si>
@@ -472,19 +472,37 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1. Je, umeishi katika Kaunti ndogo hii kwa mwaka 1 uliopita? </t>
+  </si>
+  <si>
+    <t>A2. Ikiwa hapana, Kaunti Ndogo uliyoishi inaitwa aje? </t>
+  </si>
+  <si>
+    <t>A3. Ulikaa katika Kaunti ndogo hiyo kwa muda gani?</t>
+  </si>
+  <si>
+    <t>Idhini </t>
+  </si>
+  <si>
+    <t>B1. Je, kwa kawaida hulala chini ya chandarua?</t>
+  </si>
+  <si>
+    <t>B2. Je, ulilala chini ya chandarua jana usiku?</t>
+  </si>
+  <si>
+    <t>C1. Ikiwa ni pamoja na mwaka huu, ni mara ngapi umetumia tembe za LF</t>
+  </si>
+  <si>
+    <t>p_eu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,345 +552,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -882,281 +585,39 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1170,9 +631,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1200,65 +658,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1516,93 +939,92 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="19.6222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.2518518518519" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" customWidth="1"/>
-    <col min="4" max="6" width="41.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="12.6222222222222" customWidth="1"/>
-    <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
-    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="20.3777777777778" customWidth="1"/>
-    <col min="12" max="12" width="12.6222222222222" customWidth="1"/>
-    <col min="13" max="13" width="9.74814814814815" customWidth="1"/>
-    <col min="14" max="14" width="35.3777777777778" customWidth="1"/>
-    <col min="15" max="15" width="13.8740740740741" customWidth="1"/>
-    <col min="16" max="16" width="36.6222222222222" customWidth="1"/>
+    <col min="1" max="1" width="19.609375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" customWidth="1"/>
+    <col min="4" max="6" width="41.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="20.38671875" customWidth="1"/>
+    <col min="12" max="12" width="12.609375" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" customWidth="1"/>
+    <col min="14" max="14" width="35.38671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:15">
+    <row r="2" spans="1:17" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1616,34 +1038,34 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+    <row r="3" spans="1:17" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -1652,25 +1074,25 @@
       <c r="J3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
+    <row r="4" spans="1:17" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -1679,25 +1101,25 @@
       <c r="J4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
+    <row r="5" spans="1:17" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -1710,47 +1132,47 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
+    <row r="6" spans="1:17" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:17" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -1760,25 +1182,25 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:16">
+    <row r="8" spans="1:17" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
+      <c r="E8" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1788,25 +1210,25 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:13">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1814,98 +1236,98 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="42.75" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="47">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="K10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="K10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="M10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="H11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="I11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:13">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="K12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="M12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="K12" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1913,73 +1335,73 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="14" spans="1:17" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="15" spans="1:17" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1987,51 +1409,51 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="16" spans="1:17" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="17" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2041,49 +1463,49 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="18" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="19" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2099,178 +1521,190 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="22" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="23" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>92</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="24" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="25" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="26" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
-      <c r="B27" s="11"/>
+    <row r="27" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B27" s="10"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2284,86 +1718,83 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="28.5" spans="1:13">
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="31.35">
       <c r="A28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="K28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1">
+      <c r="A29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="K28" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
-    <col min="2" max="2" width="39.6222222222222" customWidth="1"/>
-    <col min="3" max="4" width="23.7481481481481" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" customWidth="1"/>
+    <col min="2" max="2" width="39.609375" customWidth="1"/>
+    <col min="3" max="4" width="23.71875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2375,381 +1806,378 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>124</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>125</v>
       </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1">
+      <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C9" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="D9" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="12" spans="1:5" s="4" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="17" t="s">
+    <row r="13" spans="1:5" s="4" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D15" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>136</v>
+        <v>75</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>137</v>
+        <v>75</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>138</v>
+        <v>75</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>139</v>
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>140</v>
+        <v>75</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>141</v>
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>142</v>
+        <v>75</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>143</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>144</v>
+        <v>75</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>145</v>
+        <v>75</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:C54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
     <sortCondition ref="B9:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="53.3777777777778" customWidth="1"/>
-    <col min="2" max="2" width="33.3777777777778" customWidth="1"/>
-    <col min="3" max="3" width="15.8740740740741" customWidth="1"/>
+    <col min="1" max="1" width="53.38671875" customWidth="1"/>
+    <col min="2" max="2" width="33.38671875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
+++ b/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Kenya\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F3F03E-5DCB-4167-BAE3-365E002859AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -90,16 +84,22 @@
     <t>yes</t>
   </si>
   <si>
+    <t>p_eu</t>
+  </si>
+  <si>
     <t>Select your county</t>
   </si>
   <si>
+    <t>Jina la Kaunti</t>
+  </si>
+  <si>
     <t>p_subcounty</t>
   </si>
   <si>
     <t>Select your subcounty</t>
   </si>
   <si>
-    <t>Jina la Kaunti</t>
+    <t>Jina la Kaunti Ndogo</t>
   </si>
   <si>
     <t>c_ward</t>
@@ -108,7 +108,7 @@
     <t>Select your Ward</t>
   </si>
   <si>
-    <t>Jina la Kaunti Ndogo</t>
+    <t>Ward</t>
   </si>
   <si>
     <t>p_cluster_name</t>
@@ -117,7 +117,7 @@
     <t>Select the site</t>
   </si>
   <si>
-    <t>Ward</t>
+    <t>Jina la Shule/Kijiji</t>
   </si>
   <si>
     <t>p_cluster_id</t>
@@ -126,7 +126,7 @@
     <t>Select the site ID</t>
   </si>
   <si>
-    <t>Jina la Shule/Kijiji</t>
+    <t>Msimbo wa Shule/Kijiji</t>
   </si>
   <si>
     <t>select_one yes_no</t>
@@ -138,7 +138,7 @@
     <t>Does respondent provide consent?</t>
   </si>
   <si>
-    <t>Msimbo wa Shule/Kijiji</t>
+    <t>Idhini </t>
   </si>
   <si>
     <t>select_one id_list</t>
@@ -282,6 +282,9 @@
     <t>A1. Have you lived in this Sub-County for the last 1 year?</t>
   </si>
   <si>
+    <t xml:space="preserve">A1. Je, umeishi katika Kaunti ndogo hii kwa mwaka 1 uliopita? </t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -291,6 +294,9 @@
     <t>A2. If no, which is the last recent other Sub-County you lived in?</t>
   </si>
   <si>
+    <t>A2. Ikiwa hapana, Kaunti Ndogo uliyoishi inaitwa aje? </t>
+  </si>
+  <si>
     <t>${p_consent} = 'Yes' and ${p_lived_last_1yr} = 'No'</t>
   </si>
   <si>
@@ -300,6 +306,9 @@
     <t>A3. For how long did you reside in that recent last Sub-County?</t>
   </si>
   <si>
+    <t>A3. Ulikaa katika Kaunti ndogo hiyo kwa muda gani?</t>
+  </si>
+  <si>
     <t>. &lt;= ${p_age_yrs}</t>
   </si>
   <si>
@@ -312,18 +321,66 @@
     <t>B1. Do you normally sleep under a bed net?</t>
   </si>
   <si>
+    <t>B1. Je, kwa kawaida hulala chini ya chandarua?</t>
+  </si>
+  <si>
     <t>p_bednet_lastnight</t>
   </si>
   <si>
     <t>B2. Did you sleep under a bed net last night?</t>
   </si>
   <si>
+    <t>B2. Je, ulilala chini ya chandarua jana usiku?</t>
+  </si>
+  <si>
     <t>p_previous_trt</t>
   </si>
   <si>
     <t>C1. Including this year, how many times have you taken pills for LF?</t>
   </si>
   <si>
+    <t>C1. Ikiwa ni pamoja na mwaka huu, ni mara ngapi umetumia tembe za LF</t>
+  </si>
+  <si>
+    <t>p_wash_hand</t>
+  </si>
+  <si>
+    <t>Do you usually wash your hands?</t>
+  </si>
+  <si>
+    <t>p_wash_hand_soap</t>
+  </si>
+  <si>
+    <t>Do you usually wash your hands with soap?  </t>
+  </si>
+  <si>
+    <t>select_one when_wash_hand</t>
+  </si>
+  <si>
+    <t>p_when_wash_hand</t>
+  </si>
+  <si>
+    <t>When do you wash your hands?</t>
+  </si>
+  <si>
+    <t>select_one when_wash_hand_soap</t>
+  </si>
+  <si>
+    <t>p_when_wash_hand_soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When do you wash your hands with soap and water? </t>
+  </si>
+  <si>
+    <t>select_one why_wash_hand_soap</t>
+  </si>
+  <si>
+    <t>p_why_wash_hand_soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you wash your hands with water and soap? </t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
@@ -456,6 +513,60 @@
     <t>December</t>
   </si>
   <si>
+    <t>when_wash_hand</t>
+  </si>
+  <si>
+    <t>Before eating  </t>
+  </si>
+  <si>
+    <t>When hands are dirty </t>
+  </si>
+  <si>
+    <t>After eating </t>
+  </si>
+  <si>
+    <t>Before preparing food </t>
+  </si>
+  <si>
+    <t>After visiting the toilet </t>
+  </si>
+  <si>
+    <t>When returning to the house from school </t>
+  </si>
+  <si>
+    <t>After changing the baby diaper </t>
+  </si>
+  <si>
+    <t>when_wash_hand_soap</t>
+  </si>
+  <si>
+    <t>Always wash with soap and water </t>
+  </si>
+  <si>
+    <t>Sometimes wash with soap and water </t>
+  </si>
+  <si>
+    <t>Never wash with soap and water </t>
+  </si>
+  <si>
+    <t>why_wash_hand_soap</t>
+  </si>
+  <si>
+    <t> Remove dirt/ make them clean </t>
+  </si>
+  <si>
+    <t> Remove microbes/ bacteria </t>
+  </si>
+  <si>
+    <t> Personal appearance/ to look good </t>
+  </si>
+  <si>
+    <t> Prevent diseases </t>
+  </si>
+  <si>
+    <t> Make hands smell good </t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -465,44 +576,26 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(June 2022) Kenya - 2. TAS1 LF Participants Form</t>
-  </si>
-  <si>
-    <t>ke_lf_tas1_2_participant_202206</t>
+    <t>(June 2022) Kenya - 2. TAS1 LF Participants Form V1</t>
+  </si>
+  <si>
+    <t>ke_lf_tas1_2_participant_202206_v1</t>
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1. Je, umeishi katika Kaunti ndogo hii kwa mwaka 1 uliopita? </t>
-  </si>
-  <si>
-    <t>A2. Ikiwa hapana, Kaunti Ndogo uliyoishi inaitwa aje? </t>
-  </si>
-  <si>
-    <t>A3. Ulikaa katika Kaunti ndogo hiyo kwa muda gani?</t>
-  </si>
-  <si>
-    <t>Idhini </t>
-  </si>
-  <si>
-    <t>B1. Je, kwa kawaida hulala chini ya chandarua?</t>
-  </si>
-  <si>
-    <t>B2. Je, ulilala chini ya chandarua jana usiku?</t>
-  </si>
-  <si>
-    <t>C1. Ikiwa ni pamoja na mwaka huu, ni mara ngapi umetumia tembe za LF</t>
-  </si>
-  <si>
-    <t>p_eu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,6 +605,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -529,6 +629,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -552,30 +660,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -585,37 +1008,279 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -623,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -633,55 +1298,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -939,93 +1651,94 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" customWidth="1"/>
-    <col min="4" max="6" width="41.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.38671875" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" customWidth="1"/>
-    <col min="14" max="14" width="35.38671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="36.609375" customWidth="1"/>
+    <col min="1" max="1" width="26.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="42.6074074074074" customWidth="1"/>
+    <col min="4" max="6" width="41.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="12.6074074074074" customWidth="1"/>
+    <col min="8" max="8" width="16.8888888888889" customWidth="1"/>
+    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
+    <col min="11" max="11" width="20.3851851851852" customWidth="1"/>
+    <col min="12" max="12" width="12.6074074074074" customWidth="1"/>
+    <col min="13" max="13" width="9.71851851851852" customWidth="1"/>
+    <col min="14" max="14" width="35.3851851851852" customWidth="1"/>
+    <col min="15" max="15" width="13.8888888888889" customWidth="1"/>
+    <col min="16" max="16" width="36.6074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="18">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" ht="18" spans="1:17">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:15">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1042,9 +1755,9 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="5" t="s">
@@ -1053,19 +1766,19 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:16">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -1080,19 +1793,19 @@
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:16">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -1107,19 +1820,19 @@
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:16">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -1132,23 +1845,23 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:16">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1160,19 +1873,19 @@
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="9" customFormat="1" spans="1:16">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -1188,19 +1901,19 @@
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
+    <row r="8" s="9" customFormat="1" spans="1:16">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
-        <v>153</v>
+      <c r="E8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1216,19 +1929,19 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
+    <row r="9" s="9" customFormat="1" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1236,98 +1949,98 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="47">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="9" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="K10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="K10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="9" customFormat="1" spans="1:13">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="H11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="12" s="9" customFormat="1" spans="1:13">
+      <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="K12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="K12" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
+    <row r="13" s="9" customFormat="1" spans="1:16">
+      <c r="A13" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1335,7 +2048,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
@@ -1345,31 +2058,31 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
@@ -1379,29 +2092,29 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:17" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1409,27 +2122,27 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:17" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1441,19 +2154,19 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1469,27 +2182,27 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1501,11 +2214,11 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="B19" s="12"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1521,20 +2234,20 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1"/>
-    <row r="21" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="17" t="s">
-        <v>150</v>
+      <c r="E21" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1542,7 +2255,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
@@ -1552,19 +2265,19 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="17" t="s">
-        <v>151</v>
+      <c r="E22" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1572,7 +2285,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
@@ -1582,31 +2295,31 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
@@ -1616,26 +2329,26 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>94</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
@@ -1645,26 +2358,26 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
@@ -1674,26 +2387,26 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="17" t="s">
-        <v>156</v>
+      <c r="E26" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
@@ -1703,8 +2416,8 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B27" s="10"/>
+    <row r="27" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
+      <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1718,83 +2431,236 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="31.35">
-      <c r="A28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="K28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" s="3" customFormat="1">
-      <c r="A29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" s="3" customFormat="1">
-      <c r="A30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="3" t="s">
+    <row r="28" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C28" s="5" t="s">
         <v>109</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
+      <c r="B33" s="12"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="K34" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" customWidth="1"/>
-    <col min="3" max="4" width="23.71875" customWidth="1"/>
+    <col min="1" max="1" width="21.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="39.6074074074074" customWidth="1"/>
+    <col min="3" max="4" width="23.7185185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1806,378 +2672,591 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1">
+        <v>147</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1">
+        <v>147</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1">
+        <v>147</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1">
+        <v>147</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>77</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>134</v>
+        <v>77</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>135</v>
+        <v>77</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>136</v>
+        <v>77</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>138</v>
+        <v>77</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>141</v>
+        <v>77</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
+  <sortState ref="A9:C54">
     <sortCondition ref="B9:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="53.38671875" customWidth="1"/>
-    <col min="2" max="2" width="33.38671875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="53.3851851851852" customWidth="1"/>
+    <col min="2" max="2" width="33.3851851851852" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>147</v>
+      <c r="A2" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
+++ b/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
@@ -210,10 +210,10 @@
     <t>Umri</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 120</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 120 years</t>
+    <t>. &gt;= 5 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 14 years</t>
   </si>
   <si>
     <t>begin group</t>
@@ -590,12 +590,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -605,13 +605,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -629,14 +622,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,6 +660,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -683,8 +675,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,14 +695,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,6 +714,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -729,7 +730,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,61 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,7 +804,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +882,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,37 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,79 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,19 +960,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,17 +1070,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1128,6 +1102,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1137,167 +1122,164 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1305,34 +1287,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -1660,11 +1636,11 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32:M32"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1684,61 +1660,61 @@
     <col min="16" max="16" width="36.6074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="18" spans="1:17">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="8" customFormat="1" ht="18" spans="1:17">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:15">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:15">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1754,20 +1730,20 @@
         <v>19</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:16">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1781,8 +1757,8 @@
         <v>24</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="L3" s="5"/>
@@ -1791,10 +1767,10 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:16">
-      <c r="A4" s="9" t="s">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:16">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1808,8 +1784,8 @@
         <v>27</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="L4" s="5"/>
@@ -1818,10 +1794,10 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:16">
-      <c r="A5" s="9" t="s">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:16">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1835,18 +1811,18 @@
         <v>30</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:16">
-      <c r="A6" s="9" t="s">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:16">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1860,8 +1836,8 @@
         <v>33</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1871,10 +1847,10 @@
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:16">
-      <c r="A7" s="9" t="s">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:16">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1888,8 +1864,8 @@
         <v>36</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1899,10 +1875,10 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:16">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1912,12 +1888,12 @@
         <v>39</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1929,35 +1905,35 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:13">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="8" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1966,70 +1942,70 @@
       <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="K10" s="9" t="s">
+      <c r="F10" s="10"/>
+      <c r="K10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:13">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="8" customFormat="1" spans="1:13">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="10"/>
+      <c r="H11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:13">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="8" customFormat="1" spans="1:13">
+      <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="K12" s="9" t="s">
+      <c r="F12" s="10"/>
+      <c r="K12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" spans="1:16">
-      <c r="A13" s="9" t="s">
+    <row r="13" s="8" customFormat="1" spans="1:16">
+      <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2058,11 +2034,11 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2092,11 +2068,11 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2122,11 +2098,11 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2154,11 +2130,11 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A17" s="6" t="s">
+    <row r="17" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2182,11 +2158,11 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A18" s="6" t="s">
+    <row r="18" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2214,11 +2190,11 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2235,18 +2211,18 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="5"/>
@@ -2265,18 +2241,18 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A22" s="6" t="s">
+    <row r="22" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="5"/>
@@ -2284,7 +2260,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="L22" s="5"/>
@@ -2295,11 +2271,11 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A23" s="6" t="s">
+    <row r="23" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2311,14 +2287,14 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="3" t="s">
         <v>93</v>
       </c>
       <c r="L23" s="5"/>
@@ -2329,11 +2305,11 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A24" s="6" t="s">
+    <row r="24" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2358,11 +2334,11 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A25" s="6" t="s">
+    <row r="25" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2387,18 +2363,18 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A26" s="6" t="s">
+    <row r="26" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F26" s="5"/>
@@ -2416,8 +2392,8 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
-      <c r="B27" s="12"/>
+    <row r="27" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
+      <c r="B27" s="11"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2431,11 +2407,11 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A28" s="6" t="s">
+    <row r="28" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2458,11 +2434,11 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A29" s="6" t="s">
+    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2485,11 +2461,11 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A30" s="6" t="s">
+    <row r="30" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2512,11 +2488,11 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A31" s="6" t="s">
+    <row r="31" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2539,11 +2515,11 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A32" s="6" t="s">
+    <row r="32" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2566,8 +2542,8 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
-      <c r="B33" s="12"/>
+    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
+      <c r="B33" s="11"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2581,52 +2557,52 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A34" s="9" t="s">
+    <row r="34" s="8" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="K34" s="9" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="K34" s="8" t="s">
         <v>124</v>
       </c>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:6">
-      <c r="A35" s="9" t="s">
+    <row r="35" s="8" customFormat="1" spans="1:6">
+      <c r="A35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="1:6">
-      <c r="A36" s="9" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:6">
+      <c r="A36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B37" t="s">
@@ -2760,72 +2736,72 @@
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2833,13 +2809,13 @@
       <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2847,13 +2823,13 @@
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2861,13 +2837,13 @@
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2875,13 +2851,13 @@
       <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2889,13 +2865,13 @@
       <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2903,13 +2879,13 @@
       <c r="A20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2917,13 +2893,13 @@
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2931,13 +2907,13 @@
       <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2945,13 +2921,13 @@
       <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2959,13 +2935,13 @@
       <c r="A24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2973,13 +2949,13 @@
       <c r="A25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2987,13 +2963,13 @@
       <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>164</v>
       </c>
     </row>

--- a/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
+++ b/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="193">
   <si>
     <t>type</t>
   </si>
@@ -129,6 +129,18 @@
     <t>Msimbo wa Shule/Kijiji</t>
   </si>
   <si>
+    <t>${p_cluster_name} != 'Other'</t>
+  </si>
+  <si>
+    <t>p_cluster_name2</t>
+  </si>
+  <si>
+    <t>${p_cluster_name} = 'Other'</t>
+  </si>
+  <si>
+    <t>p_cluster_id2</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -210,10 +222,10 @@
     <t>Umri</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 14</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 14 years</t>
+    <t>. &gt;= 5 and . &lt;= 20</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 20 years</t>
   </si>
   <si>
     <t>begin group</t>
@@ -576,10 +588,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(June 2022) Kenya - 2. TAS1 LF Participants Form V1</t>
-  </si>
-  <si>
-    <t>ke_lf_tas1_2_participant_202206_v1</t>
+    <t>(June 2022) Kenya - 2. TAS1 LF Participants Form V2</t>
+  </si>
+  <si>
+    <t>ke_lf_tas1_2_participant_202206_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -591,9 +603,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -645,9 +657,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,22 +686,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -692,30 +695,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -729,8 +716,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,7 +764,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,37 +796,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,19 +810,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,25 +900,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,19 +942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,103 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,24 +1049,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1066,6 +1060,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,151 +1122,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,14 +1645,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1849,7 +1861,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:16">
+    <row r="7" s="8" customFormat="1" ht="28.5" spans="1:16">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +1880,9 @@
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
         <v>21</v>
@@ -1877,251 +1891,249 @@
       <c r="O7" s="5"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:16">
+    <row r="8" s="8" customFormat="1" ht="28.5" spans="1:16">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:13">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="28.5" spans="1:16">
       <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:16">
+      <c r="A10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="K10" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:13">
       <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="1:13">
-      <c r="A12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12" s="10"/>
       <c r="K12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" spans="1:16">
+    <row r="13" s="8" customFormat="1" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="H13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="M13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="5"/>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="1:13">
+      <c r="A14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="K14" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="M14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>67</v>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:16">
+      <c r="A15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
         <v>21</v>
@@ -2132,53 +2144,55 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2192,12 +2206,18 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2205,97 +2225,87 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
     <row r="21" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="3" t="s">
-        <v>93</v>
+      <c r="K23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
@@ -2307,24 +2317,25 @@
     </row>
     <row r="24" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>44</v>
+      <c r="K24" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
@@ -2336,24 +2347,29 @@
     </row>
     <row r="25" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>44</v>
+      <c r="K25" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
@@ -2365,24 +2381,24 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
@@ -2392,39 +2408,55 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
-      <c r="B27" s="11"/>
-      <c r="C27" s="5"/>
+    <row r="27" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
@@ -2434,42 +2466,30 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>111</v>
-      </c>
+    <row r="29" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
+      <c r="B29" s="11"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2478,7 +2498,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
@@ -2490,13 +2510,13 @@
     </row>
     <row r="31" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2505,7 +2525,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
@@ -2517,13 +2537,13 @@
     </row>
     <row r="32" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2532,7 +2552,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
@@ -2542,71 +2562,125 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
-      <c r="B33" s="11"/>
-      <c r="C33" s="5"/>
+    <row r="33" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" s="8" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A34" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="10" t="s">
+    <row r="34" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="K34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" s="8" customFormat="1" spans="1:6">
-      <c r="A35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="15.75" customHeight="1" spans="2:16">
+      <c r="B35" s="11"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" s="8" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A36" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" s="8" customFormat="1" spans="1:6">
-      <c r="A36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="K36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:6">
       <c r="A37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="10" t="s">
         <v>130</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:6">
+      <c r="A38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2648,539 +2722,539 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3272,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3210,24 +3284,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
+++ b/LF/TAS/Kenya/ke_lf_tas1_2_participant_202206.xlsx
@@ -252,10 +252,10 @@
     <t>Mwaka</t>
   </si>
   <si>
-    <t>. &gt;= 1902 and . &lt;= 2017</t>
-  </si>
-  <si>
-    <t>The year must be between 2017 and 1902</t>
+    <t>. &gt;= 2001 and . &lt;= 2018</t>
+  </si>
+  <si>
+    <t>The year must be between 2018 and 2001</t>
   </si>
   <si>
     <t>select_one month</t>
@@ -602,10 +602,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -657,6 +657,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -673,108 +757,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,8 +786,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,7 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,25 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,31 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +888,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -924,13 +924,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,55 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,21 +1034,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1064,15 +1049,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1084,6 +1060,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,11 +1099,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,151 +1122,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1652,7 +1652,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8:K9"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
